--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H2">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I2">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J2">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454413284883618</v>
+        <v>0.690981</v>
       </c>
       <c r="N2">
-        <v>0.454413284883618</v>
+        <v>2.072943</v>
       </c>
       <c r="O2">
-        <v>0.7424208691677128</v>
+        <v>0.8010798064371025</v>
       </c>
       <c r="P2">
-        <v>0.7424208691677128</v>
+        <v>0.8579689210526861</v>
       </c>
       <c r="Q2">
-        <v>0.8341330504155232</v>
+        <v>1.321364117935</v>
       </c>
       <c r="R2">
-        <v>0.8341330504155232</v>
+        <v>11.892277061415</v>
       </c>
       <c r="S2">
-        <v>0.1058376402727624</v>
+        <v>0.1174199352121676</v>
       </c>
       <c r="T2">
-        <v>0.1058376402727624</v>
+        <v>0.1473761102128766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83562646199738</v>
+        <v>1.912301666666667</v>
       </c>
       <c r="H3">
-        <v>1.83562646199738</v>
+        <v>5.736905</v>
       </c>
       <c r="I3">
-        <v>0.1425574693117277</v>
+        <v>0.1465770754282357</v>
       </c>
       <c r="J3">
-        <v>0.1425574693117277</v>
+        <v>0.1717732502851657</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.157656369614424</v>
+        <v>0.171581</v>
       </c>
       <c r="N3">
-        <v>0.157656369614424</v>
+        <v>0.343162</v>
       </c>
       <c r="O3">
-        <v>0.2575791308322872</v>
+        <v>0.1989201935628975</v>
       </c>
       <c r="P3">
-        <v>0.2575791308322872</v>
+        <v>0.142031078947314</v>
       </c>
       <c r="Q3">
-        <v>0.2893982039666764</v>
+        <v>0.3281146322683334</v>
       </c>
       <c r="R3">
-        <v>0.2893982039666764</v>
+        <v>1.96868779361</v>
       </c>
       <c r="S3">
-        <v>0.03671982903896527</v>
+        <v>0.02915714021606807</v>
       </c>
       <c r="T3">
-        <v>0.03671982903896527</v>
+        <v>0.02439714007228909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H4">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I4">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J4">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.454413284883618</v>
+        <v>0.690981</v>
       </c>
       <c r="N4">
-        <v>0.454413284883618</v>
+        <v>2.072943</v>
       </c>
       <c r="O4">
-        <v>0.7424208691677128</v>
+        <v>0.8010798064371025</v>
       </c>
       <c r="P4">
-        <v>0.7424208691677128</v>
+        <v>0.8579689210526861</v>
       </c>
       <c r="Q4">
-        <v>2.133809955865164</v>
+        <v>3.264262420791999</v>
       </c>
       <c r="R4">
-        <v>2.133809955865164</v>
+        <v>29.378361787128</v>
       </c>
       <c r="S4">
-        <v>0.270745069274974</v>
+        <v>0.2900710536652885</v>
       </c>
       <c r="T4">
-        <v>0.270745069274974</v>
+        <v>0.3640739836663689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.69574730063551</v>
+        <v>4.724098666666666</v>
       </c>
       <c r="H5">
-        <v>4.69574730063551</v>
+        <v>14.172296</v>
       </c>
       <c r="I5">
-        <v>0.3646786890278171</v>
+        <v>0.3621000695990751</v>
       </c>
       <c r="J5">
-        <v>0.3646786890278171</v>
+        <v>0.4243440231141098</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.157656369614424</v>
+        <v>0.171581</v>
       </c>
       <c r="N5">
-        <v>0.157656369614424</v>
+        <v>0.343162</v>
       </c>
       <c r="O5">
-        <v>0.2575791308322872</v>
+        <v>0.1989201935628975</v>
       </c>
       <c r="P5">
-        <v>0.2575791308322872</v>
+        <v>0.142031078947314</v>
       </c>
       <c r="Q5">
-        <v>0.7403144720449257</v>
+        <v>0.8105655733253333</v>
       </c>
       <c r="R5">
-        <v>0.7403144720449257</v>
+        <v>4.863393439952</v>
       </c>
       <c r="S5">
-        <v>0.09393361975284309</v>
+        <v>0.07202901593378669</v>
       </c>
       <c r="T5">
-        <v>0.09393361975284309</v>
+        <v>0.06027003944774097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H6">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I6">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J6">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.454413284883618</v>
+        <v>0.690981</v>
       </c>
       <c r="N6">
-        <v>0.454413284883618</v>
+        <v>2.072943</v>
       </c>
       <c r="O6">
-        <v>0.7424208691677128</v>
+        <v>0.8010798064371025</v>
       </c>
       <c r="P6">
-        <v>0.7424208691677128</v>
+        <v>0.8579689210526861</v>
       </c>
       <c r="Q6">
-        <v>0.1306600106924294</v>
+        <v>0.234746744803</v>
       </c>
       <c r="R6">
-        <v>0.1306600106924294</v>
+        <v>2.112720703227</v>
       </c>
       <c r="S6">
-        <v>0.01657858683673048</v>
+        <v>0.02086022103363292</v>
       </c>
       <c r="T6">
-        <v>0.01657858683673048</v>
+        <v>0.02618208082437334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.287535631195055</v>
+        <v>0.3397296666666667</v>
       </c>
       <c r="H7">
-        <v>0.287535631195055</v>
+        <v>1.019189</v>
       </c>
       <c r="I7">
-        <v>0.02233044291348628</v>
+        <v>0.02604012841917865</v>
       </c>
       <c r="J7">
-        <v>0.02233044291348628</v>
+        <v>0.03051635109608539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.157656369614424</v>
+        <v>0.171581</v>
       </c>
       <c r="N7">
-        <v>0.157656369614424</v>
+        <v>0.343162</v>
       </c>
       <c r="O7">
-        <v>0.2575791308322872</v>
+        <v>0.1989201935628975</v>
       </c>
       <c r="P7">
-        <v>0.2575791308322872</v>
+        <v>0.142031078947314</v>
       </c>
       <c r="Q7">
-        <v>0.0453318237490043</v>
+        <v>0.05829115593633334</v>
       </c>
       <c r="R7">
-        <v>0.0453318237490043</v>
+        <v>0.3497469356180001</v>
       </c>
       <c r="S7">
-        <v>0.005751856076755804</v>
+        <v>0.005179907385545726</v>
       </c>
       <c r="T7">
-        <v>0.005751856076755804</v>
+        <v>0.004334270271712056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H8">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I8">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J8">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454413284883618</v>
+        <v>0.690981</v>
       </c>
       <c r="N8">
-        <v>0.454413284883618</v>
+        <v>2.072943</v>
       </c>
       <c r="O8">
-        <v>0.7424208691677128</v>
+        <v>0.8010798064371025</v>
       </c>
       <c r="P8">
-        <v>0.7424208691677128</v>
+        <v>0.8579689210526861</v>
       </c>
       <c r="Q8">
-        <v>0.1439878988291353</v>
+        <v>0.227483613185</v>
       </c>
       <c r="R8">
-        <v>0.1439878988291353</v>
+        <v>2.047352518665</v>
       </c>
       <c r="S8">
-        <v>0.01826967464281323</v>
+        <v>0.02021479981139192</v>
       </c>
       <c r="T8">
-        <v>0.01826967464281323</v>
+        <v>0.02537199973370635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.316865513441168</v>
+        <v>0.3292183333333333</v>
       </c>
       <c r="H9">
-        <v>0.316865513441168</v>
+        <v>0.9876549999999999</v>
       </c>
       <c r="I9">
-        <v>0.02460824500164489</v>
+        <v>0.02523443937664543</v>
       </c>
       <c r="J9">
-        <v>0.02460824500164489</v>
+        <v>0.02957216643998729</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.157656369614424</v>
+        <v>0.171581</v>
       </c>
       <c r="N9">
-        <v>0.157656369614424</v>
+        <v>0.343162</v>
       </c>
       <c r="O9">
-        <v>0.2575791308322872</v>
+        <v>0.1989201935628975</v>
       </c>
       <c r="P9">
-        <v>0.2575791308322872</v>
+        <v>0.142031078947314</v>
       </c>
       <c r="Q9">
-        <v>0.04995586650514502</v>
+        <v>0.05648761085166667</v>
       </c>
       <c r="R9">
-        <v>0.04995586650514502</v>
+        <v>0.33892566511</v>
       </c>
       <c r="S9">
-        <v>0.006338570358831668</v>
+        <v>0.005019639565253513</v>
       </c>
       <c r="T9">
-        <v>0.006338570358831668</v>
+        <v>0.004200166706280944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H10">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I10">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J10">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.454413284883618</v>
+        <v>0.690981</v>
       </c>
       <c r="N10">
-        <v>0.454413284883618</v>
+        <v>2.072943</v>
       </c>
       <c r="O10">
-        <v>0.7424208691677128</v>
+        <v>0.8010798064371025</v>
       </c>
       <c r="P10">
-        <v>0.7424208691677128</v>
+        <v>0.8579689210526861</v>
       </c>
       <c r="Q10">
-        <v>2.60861459761452</v>
+        <v>3.9669505967115</v>
       </c>
       <c r="R10">
-        <v>2.60861459761452</v>
+        <v>23.801703580269</v>
       </c>
       <c r="S10">
-        <v>0.3309898981404326</v>
+        <v>0.3525137967146216</v>
       </c>
       <c r="T10">
-        <v>0.3309898981404326</v>
+        <v>0.2949647466153608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.7406213339089</v>
+        <v>5.7410415</v>
       </c>
       <c r="H11">
-        <v>5.7406213339089</v>
+        <v>11.482083</v>
       </c>
       <c r="I11">
-        <v>0.4458251537453239</v>
+        <v>0.4400482871768651</v>
       </c>
       <c r="J11">
-        <v>0.4458251537453239</v>
+        <v>0.3437942090646517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.157656369614424</v>
+        <v>0.171581</v>
       </c>
       <c r="N11">
-        <v>0.157656369614424</v>
+        <v>0.343162</v>
       </c>
       <c r="O11">
-        <v>0.2575791308322872</v>
+        <v>0.1989201935628975</v>
       </c>
       <c r="P11">
-        <v>0.2575791308322872</v>
+        <v>0.142031078947314</v>
       </c>
       <c r="Q11">
-        <v>0.9050455188351892</v>
+        <v>0.9850536416115</v>
       </c>
       <c r="R11">
-        <v>0.9050455188351892</v>
+        <v>3.940214566446</v>
       </c>
       <c r="S11">
-        <v>0.1148352556048914</v>
+        <v>0.08753449046224353</v>
       </c>
       <c r="T11">
-        <v>0.1148352556048914</v>
+        <v>0.04882946244929092</v>
       </c>
     </row>
   </sheetData>
